--- a/experiment_BG/ssim.xlsx
+++ b/experiment_BG/ssim.xlsx
@@ -55,7 +55,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -637,21 +637,7 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -663,48 +649,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -987,7 +931,7 @@
   <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3220,12 +3164,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B196">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B2&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C196">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>C2&gt;B2</formula>
     </cfRule>
   </conditionalFormatting>
